--- a/classification_report_SVM.xlsx
+++ b/classification_report_SVM.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6869158878504673</v>
+        <v>0.7121951219512195</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9245283018867925</v>
+        <v>0.9182389937106918</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7882037533512064</v>
+        <v>0.8021978021978022</v>
       </c>
       <c r="E2" t="n">
         <v>159</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8952380952380953</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8468468468468469</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.8930232558139535</v>
       </c>
       <c r="E5" t="n">
         <v>111</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.835820895522388</v>
+        <v>0.8438661710037175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9372384937238494</v>
+        <v>0.9497907949790795</v>
       </c>
       <c r="D6" t="n">
-        <v>0.883629191321499</v>
+        <v>0.8937007874015748</v>
       </c>
       <c r="E6" t="n">
         <v>239</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E8" t="n">
         <v>39</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.48</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.35</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.32</v>
       </c>
       <c r="E11" t="n">
         <v>28</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.6</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6557377049180327</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E13" t="n">
         <v>22</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E14" t="n">
         <v>21</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E16" t="n">
         <v>18</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7496503496503496</v>
+        <v>0.7608391608391608</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7496503496503496</v>
+        <v>0.7608391608391608</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7496503496503496</v>
+        <v>0.7608391608391608</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7496503496503496</v>
+        <v>0.7608391608391608</v>
       </c>
     </row>
     <row r="19">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3954736885726536</v>
+        <v>0.3903762583071111</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3571352280004684</v>
+        <v>0.3782304357716847</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3550045349653493</v>
+        <v>0.377887968164042</v>
       </c>
       <c r="E19" t="n">
         <v>715</v>
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6912711349021871</v>
+        <v>0.7012088671348715</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7496503496503496</v>
+        <v>0.7608391608391608</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7071829196996497</v>
+        <v>0.7245740871448055</v>
       </c>
       <c r="E20" t="n">
         <v>715</v>
